--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
     <sheet name="Tasks" sheetId="1" r:id="rId2"/>
     <sheet name="UserGuid" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Chandrayan_3" localSheetId="1">Tasks!$W$2:$W$14</definedName>
-    <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Tasks!$X$2:$X$14</definedName>
-    <definedName name="iCook_MPP" localSheetId="1">Tasks!$Y$2:$Y$4</definedName>
-    <definedName name="iCookMPP" localSheetId="1">Tasks!$Y$2:$Y$4</definedName>
+    <definedName name="Chandrayan_3" localSheetId="1">Data!$C$2:$C$17</definedName>
+    <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Data!$D$2:$D$17</definedName>
+    <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t>Version</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Changes</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>Removed hardcoded projectname and tasklist and owner name</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
-    <t>Simplified inputs for user for ProjectNmae,TaskLists,OwnerName</t>
   </si>
   <si>
     <t>Sr.No</t>
@@ -103,7 +91,7 @@
     <t>AssigneeName</t>
   </si>
   <si>
-    <t>Estimation(hrs)</t>
+    <t>EstimationTime(hrs-int)</t>
   </si>
   <si>
     <t>StartDatae(m-d-y)</t>
@@ -121,286 +109,88 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ProjectNames</t>
-  </si>
-  <si>
-    <t>AssigneNames</t>
-  </si>
-  <si>
-    <t>Chandrayan 3 TaskList</t>
-  </si>
-  <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
-    <t>iCook(MPP)</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>Dummy123</t>
-  </si>
-  <si>
-    <t>Dummy45 descripation</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
+    <t>S7-SW-24</t>
+  </si>
+  <si>
+    <t>User Guide for Task Creation via Excel in Zoho</t>
+  </si>
+  <si>
+    <t>Headers Explanation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter the task name.</t>
+  </si>
+  <si>
+    <t>Task creation through Zoho automation tool</t>
+  </si>
+  <si>
+    <t>TaskDescription</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter a brief task description.</t>
+  </si>
+  <si>
+    <t>Using API and Excel input...</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the project name.</t>
+  </si>
+  <si>
+    <t>Chandrayan 3</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task list name.</t>
+  </si>
+  <si>
+    <t>Development Tasks</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter a unique task ID.</t>
+  </si>
+  <si>
+    <t>Ownername</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task owner.</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-26-2024</t>
+  </si>
+  <si>
+    <t>Duedate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-27-2024</t>
+  </si>
+  <si>
+    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>S7-SW-24</t>
-  </si>
-  <si>
-    <t>Chandrayan 3</t>
-  </si>
-  <si>
-    <t>Srilakshminarayanan Gokul(SW)</t>
-  </si>
-  <si>
-    <t>Power calibration Analysis and Follow up tasks</t>
-  </si>
-  <si>
-    <t>Mpp Approval</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>Dummy12345</t>
-  </si>
-  <si>
-    <t>Dummy4512 descripation</t>
-  </si>
-  <si>
-    <t>S8-SW-24</t>
-  </si>
-  <si>
-    <t>SW CTS Dev</t>
-  </si>
-  <si>
-    <t>Dummy123456</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Mahesh N</t>
-  </si>
-  <si>
-    <t>TPT -EPP-BPP Project Backlogs</t>
-  </si>
-  <si>
-    <t>669359000013720358,669359000013720262</t>
-  </si>
-  <si>
-    <t>Everest(C2Gen2)</t>
-  </si>
-  <si>
-    <t>Balamurugan M</t>
-  </si>
-  <si>
-    <t>System DB Info Front End</t>
-  </si>
-  <si>
-    <t>Sivan Perumal Pitchaiah</t>
-  </si>
-  <si>
-    <t>Calibrator-Proto</t>
-  </si>
-  <si>
-    <t>SW Backlogs - Auto CI testing</t>
-  </si>
-  <si>
-    <t>Pallavi M.H.</t>
-  </si>
-  <si>
-    <t>SW Calibration Tasks</t>
-  </si>
-  <si>
-    <t>Apply the CI testing scope and test coverage framework to all modules</t>
-  </si>
-  <si>
-    <t>Taranga Naik</t>
-  </si>
-  <si>
-    <t>SW UI - Refactor</t>
-  </si>
-  <si>
-    <t>Hemalatha</t>
-  </si>
-  <si>
-    <t>SW UI Backlogs</t>
-  </si>
-  <si>
-    <t>Zoho API Scripts</t>
-  </si>
-  <si>
-    <t>Guruprasad Thyagaraja Charya</t>
-  </si>
-  <si>
-    <t>SW Integration tasks</t>
-  </si>
-  <si>
-    <t>Backlogs</t>
-  </si>
-  <si>
-    <t>Manjunath(SW)</t>
-  </si>
-  <si>
-    <t>SW BE Development</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Balaji s.m</t>
-  </si>
-  <si>
-    <t>Spec Understanding</t>
-  </si>
-  <si>
-    <t>C3/C2 QA Automation Tasks</t>
-  </si>
-  <si>
-    <t>Jitendra Prabhu L</t>
-  </si>
-  <si>
-    <t>C2V Automation tool</t>
-  </si>
-  <si>
-    <t>Harish R (SW-UI)</t>
-  </si>
-  <si>
-    <t>Mark steev N</t>
-  </si>
-  <si>
-    <t>Nithish Vishal</t>
-  </si>
-  <si>
-    <t>DEEPAK P</t>
-  </si>
-  <si>
-    <t>Sandeep Manojkumar</t>
-  </si>
-  <si>
-    <t>JAVAKAR T</t>
-  </si>
-  <si>
-    <t>Karthick R</t>
-  </si>
-  <si>
-    <t>Somasundaram S</t>
-  </si>
-  <si>
-    <t>Sai Trinadh Pavuluri</t>
-  </si>
-  <si>
-    <t>Sudharsanan</t>
-  </si>
-  <si>
-    <t>Pranay Nagpure Dilip</t>
-  </si>
-  <si>
-    <t>Hari Sundar</t>
-  </si>
-  <si>
-    <t>Saksham (SW-UI)</t>
-  </si>
-  <si>
-    <t>Karmukilan KT</t>
-  </si>
-  <si>
-    <t>Madankumar K</t>
-  </si>
-  <si>
-    <t>Ramanaa S</t>
-  </si>
-  <si>
-    <t>Chandra Shekar R</t>
-  </si>
-  <si>
-    <t>Addanki Krishnaprasad</t>
-  </si>
-  <si>
-    <t>User Guide for Task Creation via Excel in Zoho</t>
-  </si>
-  <si>
-    <t>Headers Explanation</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter the task name.</t>
-  </si>
-  <si>
-    <t>Task creation through Zoho automation tool</t>
-  </si>
-  <si>
-    <t>TaskDescription</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a brief task description.</t>
-  </si>
-  <si>
-    <t>Using API and Excel input...</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the project name.</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task list name.</t>
-  </si>
-  <si>
-    <t>Development Tasks</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a unique task ID.</t>
-  </si>
-  <si>
-    <t>Ownername</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task owner.</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-26-2024</t>
-  </si>
-  <si>
-    <t>Duedate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-27-2024</t>
-  </si>
-  <si>
-    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
   </si>
   <si>
     <t>(Optional) Specify the sprint name.</t>
@@ -522,6 +312,195 @@
       <t xml:space="preserve"> and can be left blank if not applicable.</t>
     </r>
   </si>
+  <si>
+    <t>ProjectNames</t>
+  </si>
+  <si>
+    <t>AssigneNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandrayan 3 </t>
+  </si>
+  <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>iCookMPP</t>
+  </si>
+  <si>
+    <t>Srilakshminarayanan Gokul(SW)</t>
+  </si>
+  <si>
+    <t>Power calibration Analysis and Follow up tasks</t>
+  </si>
+  <si>
+    <t>Mpp Approval</t>
+  </si>
+  <si>
+    <t>SW-Devops-Tools</t>
+  </si>
+  <si>
+    <t>Ashik S Manjunath</t>
+  </si>
+  <si>
+    <t>TPT -EPP-BPP Project Backlogs</t>
+  </si>
+  <si>
+    <t>Github admin settings</t>
+  </si>
+  <si>
+    <t>SW Development</t>
+  </si>
+  <si>
+    <t>Yogesh V</t>
+  </si>
+  <si>
+    <t>C3_Branching</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mahesh N</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>Everest(C2Gen2)</t>
+  </si>
+  <si>
+    <t>Balamurugan M</t>
+  </si>
+  <si>
+    <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>System DB Info Front End</t>
+  </si>
+  <si>
+    <t>Sivan Perumal Pitchaiah</t>
+  </si>
+  <si>
+    <t>Calibrator-Proto</t>
+  </si>
+  <si>
+    <t>SW Backlogs - Auto CI testing</t>
+  </si>
+  <si>
+    <t>Pallavi M.H.</t>
+  </si>
+  <si>
+    <t>SW Calibration Tasks</t>
+  </si>
+  <si>
+    <t>Apply the CI testing scope and test coverage framework to all modules</t>
+  </si>
+  <si>
+    <t>Taranga Naik</t>
+  </si>
+  <si>
+    <t>SW UI - Refactor</t>
+  </si>
+  <si>
+    <t>Hemalatha</t>
+  </si>
+  <si>
+    <t>SW UI Backlogs</t>
+  </si>
+  <si>
+    <t>Zoho API Scripts</t>
+  </si>
+  <si>
+    <t>Guruprasad Thyagaraja Charya</t>
+  </si>
+  <si>
+    <t>SW Integration tasks</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>Manjunath(SW)</t>
+  </si>
+  <si>
+    <t>SW BE Development</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Balaji s.m</t>
+  </si>
+  <si>
+    <t>Spec Understanding</t>
+  </si>
+  <si>
+    <t>C3/C2 QA Automation Tasks</t>
+  </si>
+  <si>
+    <t>Jitendra Prabhu L</t>
+  </si>
+  <si>
+    <t>C2V Automation tool</t>
+  </si>
+  <si>
+    <t>Harish R (SW-UI)</t>
+  </si>
+  <si>
+    <t>Mark steev N</t>
+  </si>
+  <si>
+    <t>Nithish Vishal</t>
+  </si>
+  <si>
+    <t>DEEPAK P</t>
+  </si>
+  <si>
+    <t>Sandeep Manojkumar</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>JAVAKAR T</t>
+  </si>
+  <si>
+    <t>Karthick R</t>
+  </si>
+  <si>
+    <t>Somasundaram S</t>
+  </si>
+  <si>
+    <t>Sai Trinadh Pavuluri</t>
+  </si>
+  <si>
+    <t>Sudharsanan</t>
+  </si>
+  <si>
+    <t>Pranay Nagpure Dilip</t>
+  </si>
+  <si>
+    <t>Hari Sundar</t>
+  </si>
+  <si>
+    <t>Saksham (SW-UI)</t>
+  </si>
+  <si>
+    <t>Karmukilan KT</t>
+  </si>
+  <si>
+    <t>Madankumar K</t>
+  </si>
+  <si>
+    <t>Ramanaa S</t>
+  </si>
+  <si>
+    <t>Chandra Shekar R</t>
+  </si>
+  <si>
+    <t>Addanki Krishnaprasad</t>
+  </si>
 </sst>
 </file>
 
@@ -544,6 +523,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -561,14 +548,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1222,13 +1201,18 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1237,24 +1221,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1582,7 +1561,7 @@
   <dimension ref="E6:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1602,47 +1581,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="5:7">
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="20">
-        <v>45562</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="5:7">
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20">
-        <v>45565</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="5:7">
+      <c r="E7" s="9"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="9"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1653,22 +1620,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="23.3428571428571" customWidth="1"/>
     <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="11.047619047619" customWidth="1"/>
-    <col min="7" max="7" width="27.4380952380952" customWidth="1"/>
+    <col min="7" max="7" width="29.3047619047619" customWidth="1"/>
     <col min="8" max="8" width="18.2571428571429" customWidth="1"/>
-    <col min="9" max="9" width="10.6857142857143" customWidth="1"/>
+    <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
     <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="42.1047619047619" customWidth="1"/>
@@ -1679,503 +1646,197 @@
     <col min="22" max="22" width="32.1428571428571" customWidth="1"/>
     <col min="23" max="23" width="41.8571428571429" customWidth="1"/>
     <col min="24" max="24" width="25.4285714285714" customWidth="1"/>
-    <col min="25" max="25" width="10.8095238095238" customWidth="1"/>
+    <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:25">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:25">
+      <c r="A1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+    </row>
+    <row r="2" customFormat="1" spans="8:20">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
+        <v>20</v>
+      </c>
+      <c r="J2" s="17">
+        <v>45422</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45514</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="14">
-        <v>20</v>
-      </c>
-      <c r="J2" s="15">
-        <v>45545</v>
-      </c>
-      <c r="K2" s="15">
-        <v>45636</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="14">
-        <v>20</v>
-      </c>
-      <c r="J3" s="15">
-        <v>45545</v>
-      </c>
-      <c r="K3" s="15">
-        <v>45636</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="14">
-        <v>20</v>
-      </c>
-      <c r="J4" s="15">
-        <v>45545</v>
-      </c>
-      <c r="K4" s="15">
-        <v>45636</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="8:25">
-      <c r="H5" s="14"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="8:24">
-      <c r="H6" s="14"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="8:24">
-      <c r="H7" s="14"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="V7" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="8:24">
-      <c r="H8" s="14"/>
-      <c r="V8" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" t="s">
-        <v>54</v>
-      </c>
-      <c r="X8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="8:24">
-      <c r="H9" s="14"/>
-      <c r="V9" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="8:24">
-      <c r="H10" s="14"/>
-      <c r="V10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="8:24">
-      <c r="H11" s="14"/>
-      <c r="V11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="X11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="8:24">
-      <c r="H12" s="14"/>
-      <c r="V12" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" t="s">
-        <v>65</v>
-      </c>
-      <c r="X12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="8:24">
-      <c r="H13" s="14"/>
-      <c r="V13" t="s">
-        <v>67</v>
-      </c>
-      <c r="W13" t="s">
-        <v>68</v>
-      </c>
-      <c r="X13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="8:24">
-      <c r="H14" s="14"/>
-      <c r="V14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" t="s">
-        <v>66</v>
-      </c>
-      <c r="X14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="8:22">
-      <c r="H15" s="14"/>
-      <c r="V15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="8:22">
-      <c r="H16" s="14"/>
-      <c r="V16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="8:22">
-      <c r="H17" s="14"/>
-      <c r="V17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="8:22">
-      <c r="H18" s="14"/>
-      <c r="V18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="8:22">
-      <c r="H19" s="14"/>
-      <c r="V19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="8:22">
-      <c r="H20" s="14"/>
-      <c r="V20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="8:22">
-      <c r="H21" s="14"/>
-      <c r="V21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="8:22">
-      <c r="H22" s="14"/>
-      <c r="V22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="8:22">
-      <c r="H23" s="14"/>
-      <c r="V23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="8:22">
-      <c r="H24" s="14"/>
-      <c r="V24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="8:22">
-      <c r="H25" s="14"/>
-      <c r="V25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="8:22">
-      <c r="H26" s="14"/>
-      <c r="V26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="8:22">
-      <c r="H27" s="14"/>
-      <c r="V27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="8:22">
-      <c r="H28" s="14"/>
-      <c r="V28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="8:22">
-      <c r="H29" s="14"/>
-      <c r="V29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="8:22">
-      <c r="H30" s="14"/>
-      <c r="V30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="8:22">
-      <c r="H31" s="14"/>
-      <c r="V31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="22:22">
-      <c r="V32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="22:22">
-      <c r="V33" t="s">
-        <v>89</v>
-      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" spans="8:20">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" spans="8:20">
+      <c r="H4" s="16"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="8:20">
+      <c r="H5" s="16"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" spans="8:20">
+      <c r="H6" s="16"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" customFormat="1" spans="8:20">
+      <c r="H7" s="16"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="8:8">
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" customFormat="1" spans="8:8">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" customFormat="1" spans="8:8">
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" customFormat="1" spans="8:8">
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" customFormat="1" spans="8:8">
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customFormat="1" spans="8:8">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" customFormat="1" spans="8:8">
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" customFormat="1" spans="8:8">
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" customFormat="1" spans="8:8">
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" customFormat="1" spans="8:8">
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" customFormat="1" spans="8:8">
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" customFormat="1" spans="8:8">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" customFormat="1" spans="8:8">
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" customFormat="1" spans="8:8">
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" customFormat="1" spans="8:8">
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" customFormat="1" spans="8:8">
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" customFormat="1" spans="8:8">
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" customFormat="1" spans="8:8">
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" customFormat="1" spans="8:8">
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" customFormat="1" spans="8:8">
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" customFormat="1" spans="8:8">
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" customFormat="1" spans="8:8">
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" customFormat="1" spans="8:8">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" customFormat="1" spans="8:8">
+      <c r="H31" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
-      <formula1>$U$2:$U$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Task,SubTask"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
+      <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
+      <formula1>Data!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C31">
-      <formula1>INDIRECT(SUBSTITUTE(B5," ","_"))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
+      <formula1>Data!$B$2:$B$39</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>"Task,SubTask"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31">
-      <formula1>$V$2:$V$33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2190,7 +1851,7 @@
   <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2202,168 +1863,168 @@
   </cols>
   <sheetData>
     <row r="3" ht="23.25" spans="4:4">
-      <c r="D3" s="1" t="s">
-        <v>90</v>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="5:5">
-      <c r="E5" s="2" t="s">
-        <v>91</v>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>94</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>96</v>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>99</v>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="G12" s="10">
         <v>12345657</v>
       </c>
     </row>
     <row r="13" spans="5:7">
-      <c r="E13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>107</v>
+      <c r="E13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>110</v>
+      <c r="E14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>113</v>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>32</v>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>117</v>
+      <c r="E18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="3:3">
-      <c r="C22" s="2" t="s">
-        <v>118</v>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="10"/>
+      <c r="C23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2373,4 +2034,305 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:4">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:4">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:4">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:4">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:4">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:4">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:4">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:4">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:2">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:2">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:2">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:2">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:2">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:2">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:2">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:2">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:2">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:2">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:2">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:2">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:2">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:2">
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:2">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>Version</t>
   </si>
@@ -109,7 +109,34 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>Practice1</t>
+  </si>
+  <si>
+    <t>Practice desciption</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>10-15-2024</t>
+  </si>
+  <si>
+    <t>10-20-2024</t>
+  </si>
+  <si>
     <t>S7-SW-24</t>
+  </si>
+  <si>
+    <t>Practice2</t>
   </si>
   <si>
     <t>User Guide for Task Creation via Excel in Zoho</t>
@@ -322,9 +349,6 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
     <t>iCookMPP</t>
   </si>
   <si>
@@ -364,9 +388,6 @@
     <t>Mahesh N</t>
   </si>
   <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
     <t>Everest(C2Gen2)</t>
   </si>
   <si>
@@ -458,9 +479,6 @@
   </si>
   <si>
     <t>Sandeep Manojkumar</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>JAVAKAR T</t>
@@ -1622,8 +1640,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1700,27 +1718,77 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="8:20">
-      <c r="H2" s="16"/>
+    <row r="2" customFormat="1" spans="1:20">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="16">
         <v>20</v>
       </c>
-      <c r="J2" s="17">
-        <v>45422</v>
-      </c>
-      <c r="K2" s="17">
-        <v>45514</v>
+      <c r="J2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" customFormat="1" spans="8:20">
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="K3" s="17"/>
+    <row r="3" customFormat="1" spans="1:20">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="16">
+        <v>20</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
@@ -1818,26 +1886,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B30">
+      <formula1>Data!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4:C30">
+      <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3">
       <formula1>"Task,SubTask"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4:H30">
+      <formula1>Data!$B$2:$B$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L3 L4:L30">
+      <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
-      <formula1>Data!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
-      <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
-      <formula1>Data!$B$2:$B$39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
-      <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,24 +1932,24 @@
   <sheetData>
     <row r="3" ht="23.25" spans="4:4">
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="5:5">
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="5:7">
@@ -1889,21 +1957,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="5:7">
@@ -1911,10 +1979,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="5:7">
@@ -1922,18 +1990,18 @@
         <v>5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G12" s="10">
         <v>12345657</v>
@@ -1941,35 +2009,35 @@
     </row>
     <row r="13" spans="5:7">
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" s="11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="5:7">
@@ -1977,10 +2045,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -1988,10 +2056,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -1999,15 +2067,15 @@
         <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="3:3">
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -2015,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D23" s="13"/>
     </row>
@@ -2024,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2109,7 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2056,279 +2124,279 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:4">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:4">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:4">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:4">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:2">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:2">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:2">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:2">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:2">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:2">
       <c r="B23" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:2">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:2">
       <c r="B25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:2">
       <c r="B26" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:2">
       <c r="B27" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:2">
       <c r="B28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:2">
       <c r="B29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:2">
       <c r="B30" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:2">
       <c r="B31" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:2">
       <c r="B32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:2">
       <c r="B33" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>Version</t>
   </si>
@@ -106,121 +106,97 @@
     <t>Sprint</t>
   </si>
   <si>
+    <t>iCookMPP</t>
+  </si>
+  <si>
+    <t>User Guide for Task Creation via Excel in Zoho</t>
+  </si>
+  <si>
+    <t>Headers Explanation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter the task name.</t>
+  </si>
+  <si>
+    <t>Task creation through Zoho automation tool</t>
+  </si>
+  <si>
+    <t>TaskDescription</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter a brief task description.</t>
+  </si>
+  <si>
+    <t>Using API and Excel input...</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the project name.</t>
+  </si>
+  <si>
+    <t>Chandrayan 3</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task list name.</t>
+  </si>
+  <si>
+    <t>Development Tasks</t>
+  </si>
+  <si>
+    <t>TaskID</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter a unique task ID.</t>
+  </si>
+  <si>
+    <t>Ownername</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task owner.</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-26-2024</t>
+  </si>
+  <si>
+    <t>Duedate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-27-2024</t>
+  </si>
+  <si>
+    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>(Optional) Specify the sprint name.</t>
+  </si>
+  <si>
+    <t>S7-SW-24</t>
+  </si>
+  <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>Practice1</t>
-  </si>
-  <si>
-    <t>Practice desciption</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
-  </si>
-  <si>
-    <t>10-15-2024</t>
-  </si>
-  <si>
-    <t>10-20-2024</t>
-  </si>
-  <si>
-    <t>S7-SW-24</t>
-  </si>
-  <si>
-    <t>Practice2</t>
-  </si>
-  <si>
-    <t>User Guide for Task Creation via Excel in Zoho</t>
-  </si>
-  <si>
-    <t>Headers Explanation</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter the task name.</t>
-  </si>
-  <si>
-    <t>Task creation through Zoho automation tool</t>
-  </si>
-  <si>
-    <t>TaskDescription</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a brief task description.</t>
-  </si>
-  <si>
-    <t>Using API and Excel input...</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the project name.</t>
-  </si>
-  <si>
-    <t>Chandrayan 3</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task list name.</t>
-  </si>
-  <si>
-    <t>Development Tasks</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a unique task ID.</t>
-  </si>
-  <si>
-    <t>Ownername</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task owner.</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-26-2024</t>
-  </si>
-  <si>
-    <t>Duedate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-27-2024</t>
-  </si>
-  <si>
-    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>(Optional) Specify the sprint name.</t>
   </si>
   <si>
     <t>(Optional) Add any relevant tags.</t>
@@ -251,7 +227,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>red</t>
+      <t>green</t>
     </r>
     <r>
       <rPr>
@@ -349,7 +325,7 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
-    <t>iCookMPP</t>
+    <t>SW Automation Tool Dev</t>
   </si>
   <si>
     <t>Srilakshminarayanan Gokul(SW)</t>
@@ -388,6 +364,9 @@
     <t>Mahesh N</t>
   </si>
   <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
     <t>Everest(C2Gen2)</t>
   </si>
   <si>
@@ -479,6 +458,9 @@
   </si>
   <si>
     <t>Sandeep Manojkumar</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>JAVAKAR T</t>
@@ -1640,8 +1622,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1707,9 +1689,7 @@
       <c r="M1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="N1"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1"/>
@@ -1718,77 +1698,22 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="1:20">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" customFormat="1" spans="2:20">
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="16">
-        <v>20</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" customFormat="1" spans="1:20">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="16">
-        <v>20</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
+    <row r="3" customFormat="1" spans="8:20">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
@@ -1886,26 +1811,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B30">
-      <formula1>Data!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4:C30">
-      <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3">
-      <formula1>"Task,SubTask"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4:H30">
-      <formula1>Data!$B$2:$B$39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L3 L4:L30">
-      <formula1>"Low,Medium,High"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
+      <formula1>Data!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
+      <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+      <formula1>"Task,SubTask"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
+      <formula1>Data!$B$2:$B$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
+      <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,8 +1843,8 @@
   <sheetPr/>
   <dimension ref="B3:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1932,24 +1857,24 @@
   <sheetData>
     <row r="3" ht="23.25" spans="4:4">
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="5:5">
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="5:7">
@@ -1957,21 +1882,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="5:7">
@@ -1979,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="5:7">
@@ -1990,18 +1915,18 @@
         <v>5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G12" s="10">
         <v>12345657</v>
@@ -2009,35 +1934,35 @@
     </row>
     <row r="13" spans="5:7">
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="5:7">
@@ -2045,10 +1970,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -2056,26 +1981,26 @@
         <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="3:3">
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -2083,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13"/>
     </row>
@@ -2092,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2109,8 +2034,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2124,279 +2049,279 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:4">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:4">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:4">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:4">
       <c r="B13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
       <c r="B14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:2">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:2">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:2">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:2">
       <c r="B21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:2">
       <c r="B22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:2">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:2">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:2">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:2">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:2">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:2">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:2">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:2">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:2">
       <c r="B31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:2">
       <c r="B32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:2">
       <c r="B33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>Version</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>iCookMPP</t>
-  </si>
-  <si>
     <t>User Guide for Task Creation via Excel in Zoho</t>
   </si>
   <si>
@@ -209,20 +206,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Fields highlighted in </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
+        <color theme="9"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -263,25 +253,28 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Fields highlighted in </t>
+    </r>
+    <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Fields highlighted in </t>
+      <t>l</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>gray</t>
+      <t>ight orange shade</t>
     </r>
     <r>
       <rPr>
@@ -316,6 +309,12 @@
     </r>
   </si>
   <si>
+    <t>Each time a task is created, ensure that the previous tasks are replaced with the new ones you are about to create. This prevents the system from attempting to recreate older tasks</t>
+  </si>
+  <si>
+    <t>Name the Excel file after your Zoho account username, which will be used to extract your email address for sending task creation summaries via email notifications</t>
+  </si>
+  <si>
     <t>ProjectNames</t>
   </si>
   <si>
@@ -326,6 +325,9 @@
   </si>
   <si>
     <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>iCookMPP</t>
   </si>
   <si>
     <t>Srilakshminarayanan Gokul(SW)</t>
@@ -513,7 +515,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +706,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -712,7 +737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,19 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1094,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,16 +1118,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1117,85 +1136,85 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,22 +1231,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1622,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1633,8 +1650,8 @@
     <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="11.047619047619" customWidth="1"/>
-    <col min="7" max="7" width="29.3047619047619" customWidth="1"/>
-    <col min="8" max="8" width="18.2571428571429" customWidth="1"/>
+    <col min="7" max="7" width="32.0476190476191" customWidth="1"/>
+    <col min="8" max="8" width="15.5238095238095" customWidth="1"/>
     <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
     <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
@@ -1650,43 +1667,43 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
@@ -1698,10 +1715,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="2:20">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" customFormat="1" spans="8:20">
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
@@ -1810,24 +1824,18 @@
       <c r="H31" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
-      <formula1>Data!$A$2:$A$8</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Task,SubTask"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
-      <formula1>Data!$B$2:$B$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
       <formula1>"Low,Medium,High"</formula1>
@@ -1841,10 +1849,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G24"/>
+  <dimension ref="B3:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1855,169 +1863,190 @@
     <col min="7" max="7" width="60.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="23.25" spans="4:4">
+    <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1" ht="18.75" spans="5:5">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="5:5">
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="4:7">
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
+    </row>
+    <row r="8" customFormat="1" spans="5:7">
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9" t="s">
+    </row>
+    <row r="9" customFormat="1" spans="5:7">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="9" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="5:7">
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="9" t="s">
+    </row>
+    <row r="11" customFormat="1" spans="5:7">
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9" t="s">
+    </row>
+    <row r="12" customFormat="1" spans="5:7">
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="11">
+        <v>12345657</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="5:7">
+      <c r="E13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="10">
-        <v>12345657</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="9" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="5:7">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="9" t="s">
+    </row>
+    <row r="15" customFormat="1" spans="5:7">
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="9" t="s">
+    </row>
+    <row r="16" customFormat="1" spans="5:7">
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="9" t="s">
+    </row>
+    <row r="17" customFormat="1" spans="5:7">
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="9" t="s">
+    </row>
+    <row r="18" customFormat="1" spans="5:7">
+      <c r="E18" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9" t="s">
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1" ht="18.75" spans="3:3">
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="18.75" spans="3:3">
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+    <row r="23" customFormat="1" ht="15.75" spans="2:4">
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" customFormat="1" ht="15.75" spans="2:3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2034,8 +2063,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2049,279 +2078,279 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:4">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:4">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:4">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:4">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:4">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:4">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:4">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:2">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:2">
       <c r="B18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:2">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:2">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:2">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:2">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:2">
       <c r="B23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:2">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:2">
       <c r="B25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:2">
       <c r="B26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:2">
       <c r="B27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:2">
       <c r="B28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:2">
       <c r="B29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:2">
       <c r="B30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:2">
       <c r="B31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:2">
       <c r="B32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:2">
       <c r="B33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Chandrayan_3" localSheetId="1">Data!$C$2:$C$17</definedName>
     <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Data!$D$2:$D$17</definedName>
-    <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$3</definedName>
+    <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
   <si>
     <t>Version</t>
   </si>
@@ -206,6 +206,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Fields highlighted in </t>
     </r>
     <r>
@@ -253,6 +260,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Fields highlighted in </t>
     </r>
     <r>
@@ -339,169 +353,283 @@
     <t>Mpp Approval</t>
   </si>
   <si>
+    <t>SW MPP-TPT Module</t>
+  </si>
+  <si>
+    <t>Ashik S Manjunath</t>
+  </si>
+  <si>
+    <t>TPT -EPP-BPP Project Backlogs</t>
+  </si>
+  <si>
+    <t>Github admin settings</t>
+  </si>
+  <si>
+    <t>SW MPP-TPR Module</t>
+  </si>
+  <si>
+    <t>Yogesh V</t>
+  </si>
+  <si>
+    <t>C3_Branching</t>
+  </si>
+  <si>
+    <t>SW C3-TPT Module</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mahesh N</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>SW C3-TPR Module</t>
+  </si>
+  <si>
+    <t>Everest(C2Gen2)</t>
+  </si>
+  <si>
+    <t>Balamurugan M</t>
+  </si>
+  <si>
+    <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>System DB Info Front End</t>
+  </si>
+  <si>
+    <t>MPP-TPR Backlog</t>
+  </si>
+  <si>
+    <t>Sivan Perumal Pitchaiah</t>
+  </si>
+  <si>
+    <t>Calibrator-Proto</t>
+  </si>
+  <si>
+    <t>SW Backlogs - Auto CI testing</t>
+  </si>
+  <si>
+    <t>SW Tasks - CTS 2.1</t>
+  </si>
+  <si>
+    <t>Pallavi M.H.</t>
+  </si>
+  <si>
+    <t>SW Calibration Tasks</t>
+  </si>
+  <si>
+    <t>Apply the CI testing scope and test coverage framework to all modules</t>
+  </si>
+  <si>
+    <t>25W - Google Tech Tryout</t>
+  </si>
+  <si>
+    <t>Taranga Naik</t>
+  </si>
+  <si>
+    <t>SW UI - Refactor</t>
+  </si>
+  <si>
+    <t>SW Refactor June</t>
+  </si>
+  <si>
+    <t>Hemalatha</t>
+  </si>
+  <si>
+    <t>SW UI Backlogs</t>
+  </si>
+  <si>
+    <t>Zoho API Scripts</t>
+  </si>
+  <si>
+    <t>V2.1 related CR to be included in our product</t>
+  </si>
+  <si>
+    <t>Guruprasad Thyagaraja Charya</t>
+  </si>
+  <si>
+    <t>SW Integration tasks</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>SW Support and Inter Dependencies</t>
+  </si>
+  <si>
+    <t>Manjunath(SW)</t>
+  </si>
+  <si>
+    <t>SW BE Development</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>SW Backlogs</t>
+  </si>
+  <si>
+    <t>Balaji s.m</t>
+  </si>
+  <si>
+    <t>Spec Understanding</t>
+  </si>
+  <si>
+    <t>C3/C2 QA Automation Tasks</t>
+  </si>
+  <si>
     <t>SW-Devops-Tools</t>
   </si>
   <si>
-    <t>Ashik S Manjunath</t>
-  </si>
-  <si>
-    <t>TPT -EPP-BPP Project Backlogs</t>
-  </si>
-  <si>
-    <t>Github admin settings</t>
+    <t>Jitendra Prabhu L</t>
+  </si>
+  <si>
+    <t>C2V Automation tool</t>
+  </si>
+  <si>
+    <t>Spec 2.0.1 improvements</t>
+  </si>
+  <si>
+    <t>Harish R (SW-UI)</t>
+  </si>
+  <si>
+    <t>NOTALS</t>
+  </si>
+  <si>
+    <t>Mark steev N</t>
+  </si>
+  <si>
+    <t>SW Assets</t>
+  </si>
+  <si>
+    <t>Nithish Vishal</t>
+  </si>
+  <si>
+    <t>SW CRSL Tasklist</t>
+  </si>
+  <si>
+    <t>DEEPAK P</t>
+  </si>
+  <si>
+    <t>Thermal Management</t>
+  </si>
+  <si>
+    <t>Sandeep Manojkumar</t>
+  </si>
+  <si>
+    <t>Power Modes</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>SW DSL Tasklist</t>
+  </si>
+  <si>
+    <t>JAVAKAR T</t>
+  </si>
+  <si>
+    <t>SW Shared Modules</t>
+  </si>
+  <si>
+    <t>Karthick R</t>
+  </si>
+  <si>
+    <t>SW tasks</t>
+  </si>
+  <si>
+    <t>Somasundaram S</t>
+  </si>
+  <si>
+    <t>SW Server App Dev</t>
+  </si>
+  <si>
+    <t>Sai Trinadh Pavuluri</t>
+  </si>
+  <si>
+    <t>MPP SW UI Dev</t>
+  </si>
+  <si>
+    <t>Sudharsanan</t>
+  </si>
+  <si>
+    <t>Sw Integration</t>
+  </si>
+  <si>
+    <t>Pranay Nagpure Dilip</t>
   </si>
   <si>
     <t>SW Development</t>
   </si>
   <si>
-    <t>Yogesh V</t>
-  </si>
-  <si>
-    <t>C3_Branching</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Mahesh N</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>Everest(C2Gen2)</t>
-  </si>
-  <si>
-    <t>Balamurugan M</t>
-  </si>
-  <si>
-    <t>SW CTS Dev</t>
-  </si>
-  <si>
-    <t>System DB Info Front End</t>
-  </si>
-  <si>
-    <t>Sivan Perumal Pitchaiah</t>
-  </si>
-  <si>
-    <t>Calibrator-Proto</t>
-  </si>
-  <si>
-    <t>SW Backlogs - Auto CI testing</t>
-  </si>
-  <si>
-    <t>Pallavi M.H.</t>
-  </si>
-  <si>
-    <t>SW Calibration Tasks</t>
-  </si>
-  <si>
-    <t>Apply the CI testing scope and test coverage framework to all modules</t>
-  </si>
-  <si>
-    <t>Taranga Naik</t>
-  </si>
-  <si>
-    <t>SW UI - Refactor</t>
-  </si>
-  <si>
-    <t>Hemalatha</t>
-  </si>
-  <si>
-    <t>SW UI Backlogs</t>
-  </si>
-  <si>
-    <t>Zoho API Scripts</t>
-  </si>
-  <si>
-    <t>Guruprasad Thyagaraja Charya</t>
-  </si>
-  <si>
-    <t>SW Integration tasks</t>
-  </si>
-  <si>
-    <t>Backlogs</t>
-  </si>
-  <si>
-    <t>Manjunath(SW)</t>
-  </si>
-  <si>
-    <t>SW BE Development</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Balaji s.m</t>
-  </si>
-  <si>
-    <t>Spec Understanding</t>
-  </si>
-  <si>
-    <t>C3/C2 QA Automation Tasks</t>
-  </si>
-  <si>
-    <t>Jitendra Prabhu L</t>
-  </si>
-  <si>
-    <t>C2V Automation tool</t>
-  </si>
-  <si>
-    <t>Harish R (SW-UI)</t>
-  </si>
-  <si>
-    <t>Mark steev N</t>
-  </si>
-  <si>
-    <t>Nithish Vishal</t>
-  </si>
-  <si>
-    <t>DEEPAK P</t>
-  </si>
-  <si>
-    <t>Sandeep Manojkumar</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
-  </si>
-  <si>
-    <t>JAVAKAR T</t>
-  </si>
-  <si>
-    <t>Karthick R</t>
-  </si>
-  <si>
-    <t>Somasundaram S</t>
-  </si>
-  <si>
-    <t>Sai Trinadh Pavuluri</t>
-  </si>
-  <si>
-    <t>Sudharsanan</t>
-  </si>
-  <si>
-    <t>Pranay Nagpure Dilip</t>
-  </si>
-  <si>
     <t>Hari Sundar</t>
   </si>
   <si>
+    <t>SW Unit testing</t>
+  </si>
+  <si>
     <t>Saksham (SW-UI)</t>
   </si>
   <si>
+    <t>APP refactor - C3/MPP/BPP/EPP for TPT/TPR</t>
+  </si>
+  <si>
     <t>Karmukilan KT</t>
   </si>
   <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
     <t>Madankumar K</t>
   </si>
   <si>
     <t>Ramanaa S</t>
   </si>
   <si>
+    <t>CTS mapping</t>
+  </si>
+  <si>
     <t>Chandra Shekar R</t>
   </si>
   <si>
+    <t>MPP-TPT Synthetic File Simulation</t>
+  </si>
+  <si>
     <t>Addanki Krishnaprasad</t>
+  </si>
+  <si>
+    <t>Remaining MPP TPT tasks by July</t>
+  </si>
+  <si>
+    <t>June End Target</t>
+  </si>
+  <si>
+    <t>CTS - TPR test case development</t>
+  </si>
+  <si>
+    <t>CTS - MPP TPT test case development</t>
+  </si>
+  <si>
+    <t>TPT SW</t>
+  </si>
+  <si>
+    <t>SW Refactor backlogs</t>
+  </si>
+  <si>
+    <t>Integrate Calibration SW modules for MPP</t>
+  </si>
+  <si>
+    <t>SW_Tasks</t>
+  </si>
+  <si>
+    <t>CTS - TPR FW Support Task</t>
+  </si>
+  <si>
+    <t>Software Protocol Implementation (TPR &amp; TPT)</t>
   </si>
 </sst>
 </file>
@@ -706,6 +834,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -716,22 +860,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1220,8 +1348,7 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1244,6 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1599,34 +1727,34 @@
       </c>
     </row>
     <row r="7" spans="5:7">
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1639,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1666,8 +1794,8 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:25">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -1676,34 +1804,34 @@
       <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
@@ -1720,36 +1848,36 @@
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" customFormat="1" spans="8:20">
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="8:20">
       <c r="H4" s="16"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="8:20">
       <c r="H5" s="16"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="8:20">
       <c r="H6" s="16"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="8:20">
       <c r="H7" s="16"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="8:8">
       <c r="H8" s="16"/>
@@ -1824,12 +1952,15 @@
       <c r="H31" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
+      <formula1>Data!$A$2:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
@@ -1864,155 +1995,150 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="1"/>
     <row r="5" customFormat="1" ht="18.75" spans="5:5">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" ht="15.75" spans="4:7">
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>12345657</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:7">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:7">
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:7">
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:7">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
     <row r="22" customFormat="1" ht="18.75" spans="3:3">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2020,16 +2146,16 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="2:3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2061,10 +2187,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2127,7 +2253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:4">
+    <row r="4" customFormat="1" spans="1:5">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2140,217 +2266,356 @@
       <c r="D4" t="s">
         <v>67</v>
       </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:4">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:4">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:5">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:5">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:4">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:4">
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:5">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:4">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:5">
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:4">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:5">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:4">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:5">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:4">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:5">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:2">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:5">
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:2">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:5">
       <c r="B16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:2">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:5">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:5">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="2:5">
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="2:5">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:5">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="2:5">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:5">
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:5">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:5">
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="2:5">
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:5">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:5">
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:5">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:5">
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="2:5">
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="2:5">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="2:2">
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:2">
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="2:2">
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="2:2">
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="2:2">
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="2:2">
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:2">
-      <c r="B24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:2">
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:2">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="2:2">
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:2">
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="2:2">
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="2:2">
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:2">
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="2:2">
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="2:2">
-      <c r="B33" t="s">
-        <v>115</v>
+    <row r="43" spans="5:5">
+      <c r="E43" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>TaskID</t>
   </si>
   <si>
-    <t>(Mandatory) Enter a unique task ID.</t>
+    <t>(Mandatory) Enter a unique task ID. (Only when creating subtask)</t>
   </si>
   <si>
     <t>Ownername</t>
@@ -835,14 +835,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="9"/>
       <name val="Calibri"/>
@@ -860,6 +852,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1982,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2189,7 +2189,7 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <definedName name="Chandrayan_3" localSheetId="1">Data!$C$2:$C$17</definedName>
     <definedName name="SW_Automation_Tool_Dev" localSheetId="1">Data!$D$2:$D$17</definedName>
     <definedName name="iCookMPP" localSheetId="1">Data!$E$2:$E$46</definedName>
+    <definedName name="Sun">Data!$F$2:$F$18</definedName>
+    <definedName name="EverestC2Gen2">Data!$G$2:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="180">
   <si>
     <t>Version</t>
   </si>
@@ -344,6 +346,12 @@
     <t>iCookMPP</t>
   </si>
   <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Everest(C2Gen2)</t>
+  </si>
+  <si>
     <t>Srilakshminarayanan Gokul(SW)</t>
   </si>
   <si>
@@ -356,6 +364,12 @@
     <t>SW MPP-TPT Module</t>
   </si>
   <si>
+    <t>SW Backlogs-C3 TPR</t>
+  </si>
+  <si>
+    <t>PD Merged Optimization - SW</t>
+  </si>
+  <si>
     <t>Ashik S Manjunath</t>
   </si>
   <si>
@@ -368,6 +382,12 @@
     <t>SW MPP-TPR Module</t>
   </si>
   <si>
+    <t>Test JIG FW support</t>
+  </si>
+  <si>
+    <t>TBT SPR PDO Support</t>
+  </si>
+  <si>
     <t>Yogesh V</t>
   </si>
   <si>
@@ -377,7 +397,10 @@
     <t>SW C3-TPT Module</t>
   </si>
   <si>
-    <t>Sun</t>
+    <t>SW BE Support Tasks</t>
+  </si>
+  <si>
+    <t>TBT EPR PDO Support</t>
   </si>
   <si>
     <t>Mahesh N</t>
@@ -389,7 +412,13 @@
     <t>SW C3-TPR Module</t>
   </si>
   <si>
-    <t>Everest(C2Gen2)</t>
+    <t>C3-TPR Project Backlog Tasklist</t>
+  </si>
+  <si>
+    <t>DP Alt Mode CTS V2.1</t>
+  </si>
+  <si>
+    <t>EverestC2Gen2</t>
   </si>
   <si>
     <t>Balamurugan M</t>
@@ -404,6 +433,12 @@
     <t>MPP-TPR Backlog</t>
   </si>
   <si>
+    <t>V2.0 to V2.0.1 upgrade</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>Sivan Perumal Pitchaiah</t>
   </si>
   <si>
@@ -416,6 +451,12 @@
     <t>SW Tasks - CTS 2.1</t>
   </si>
   <si>
+    <t>[FW:SW] : CTS implementation</t>
+  </si>
+  <si>
+    <t>PDM r1.4 v6 CTS support</t>
+  </si>
+  <si>
     <t>Pallavi M.H.</t>
   </si>
   <si>
@@ -428,6 +469,12 @@
     <t>25W - Google Tech Tryout</t>
   </si>
   <si>
+    <t>SW Support</t>
+  </si>
+  <si>
+    <t>PDM CTS Ver1.5 Support</t>
+  </si>
+  <si>
     <t>Taranga Naik</t>
   </si>
   <si>
@@ -437,6 +484,12 @@
     <t>SW Refactor June</t>
   </si>
   <si>
+    <t>SW Development</t>
+  </si>
+  <si>
+    <t>Equipment Handling Document</t>
+  </si>
+  <si>
     <t>Hemalatha</t>
   </si>
   <si>
@@ -449,6 +502,12 @@
     <t>V2.1 related CR to be included in our product</t>
   </si>
   <si>
+    <t>Software Development[TPT]</t>
+  </si>
+  <si>
+    <t>C2 Automation</t>
+  </si>
+  <si>
     <t>Guruprasad Thyagaraja Charya</t>
   </si>
   <si>
@@ -461,18 +520,27 @@
     <t>SW Support and Inter Dependencies</t>
   </si>
   <si>
+    <t>SW Optimization</t>
+  </si>
+  <si>
+    <t>C2 EPR SW tasks</t>
+  </si>
+  <si>
     <t>Manjunath(SW)</t>
   </si>
   <si>
     <t>SW BE Development</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>SW Backlogs</t>
   </si>
   <si>
+    <t>1.3.3 Test Validation -SW</t>
+  </si>
+  <si>
+    <t>Calibration Tasks Plan</t>
+  </si>
+  <si>
     <t>Balaji s.m</t>
   </si>
   <si>
@@ -485,6 +553,9 @@
     <t>SW-Devops-Tools</t>
   </si>
   <si>
+    <t>JSON Report viewer</t>
+  </si>
+  <si>
     <t>Jitendra Prabhu L</t>
   </si>
   <si>
@@ -494,18 +565,27 @@
     <t>Spec 2.0.1 improvements</t>
   </si>
   <si>
+    <t>SW design doc</t>
+  </si>
+  <si>
     <t>Harish R (SW-UI)</t>
   </si>
   <si>
     <t>NOTALS</t>
   </si>
   <si>
+    <t>UI Automation Test script dev</t>
+  </si>
+  <si>
     <t>Mark steev N</t>
   </si>
   <si>
     <t>SW Assets</t>
   </si>
   <si>
+    <t>C3 Application Validator</t>
+  </si>
+  <si>
     <t>Nithish Vishal</t>
   </si>
   <si>
@@ -518,6 +598,9 @@
     <t>Thermal Management</t>
   </si>
   <si>
+    <t>Ui Changes/update based on Team's feedback</t>
+  </si>
+  <si>
     <t>Sandeep Manojkumar</t>
   </si>
   <si>
@@ -561,9 +644,6 @@
   </si>
   <si>
     <t>Pranay Nagpure Dilip</t>
-  </si>
-  <si>
-    <t>SW Development</t>
   </si>
   <si>
     <t>Hari Sundar</t>
@@ -842,6 +922,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -852,14 +940,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1767,8 +1847,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1982,7 +2062,7 @@
   <sheetPr/>
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2187,22 +2267,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="41.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2218,404 +2300,494 @@
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="2:5">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="2:5">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:5">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:7">
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:7">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:5">
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:5">
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:5">
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:5">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="2:5">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="2:5">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="2:5">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:5">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="2:5">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="182">
   <si>
     <t>Version</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>Sprint</t>
+  </si>
+  <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestDesc</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>User Guide for Task Creation via Excel in Zoho</t>
@@ -340,9 +355,6 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
     <t>iCookMPP</t>
   </si>
   <si>
@@ -406,9 +418,6 @@
     <t>Mahesh N</t>
   </si>
   <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
     <t>SW C3-TPR Module</t>
   </si>
   <si>
@@ -605,9 +614,6 @@
   </si>
   <si>
     <t>Power Modes</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>SW DSL Tasklist</t>
@@ -1848,7 +1854,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1923,8 +1929,22 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="8:20">
-      <c r="H2" s="16"/>
+    <row r="2" customFormat="1" spans="2:20">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -2032,7 +2052,10 @@
       <c r="H31" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>Data!$B$2:$B$33</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
@@ -2076,24 +2099,24 @@
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
@@ -2101,21 +2124,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
@@ -2123,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
@@ -2134,18 +2157,18 @@
         <v>5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12" s="10">
         <v>12345657</v>
@@ -2153,35 +2176,35 @@
     </row>
     <row r="13" customFormat="1" spans="5:7">
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:7">
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:7">
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
@@ -2189,10 +2212,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:7">
@@ -2200,26 +2223,26 @@
         <v>15</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:7">
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="18.75" spans="3:3">
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="2:4">
@@ -2227,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D23" s="12"/>
     </row>
@@ -2236,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:3">
@@ -2244,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:3">
@@ -2252,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2286,508 +2309,508 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
   <si>
     <t>Version</t>
   </si>
@@ -106,21 +106,6 @@
   </si>
   <si>
     <t>Sprint</t>
-  </si>
-  <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TestDesc</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>User Guide for Task Creation via Excel in Zoho</t>
@@ -355,6 +340,9 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
     <t>iCookMPP</t>
   </si>
   <si>
@@ -418,6 +406,9 @@
     <t>Mahesh N</t>
   </si>
   <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
     <t>SW C3-TPR Module</t>
   </si>
   <si>
@@ -580,6 +571,9 @@
     <t>Harish R (SW-UI)</t>
   </si>
   <si>
+    <t>sample</t>
+  </si>
+  <si>
     <t>NOTALS</t>
   </si>
   <si>
@@ -614,6 +608,9 @@
   </si>
   <si>
     <t>Power Modes</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>SW DSL Tasklist</t>
@@ -920,6 +917,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="9"/>
@@ -931,21 +943,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1853,8 +1850,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1929,22 +1926,8 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="2:20">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" customFormat="1" spans="8:20">
+      <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -2099,24 +2082,24 @@
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
@@ -2124,21 +2107,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
@@ -2146,10 +2129,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
@@ -2157,18 +2140,18 @@
         <v>5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" s="10">
         <v>12345657</v>
@@ -2176,35 +2159,35 @@
     </row>
     <row r="13" customFormat="1" spans="5:7">
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:7">
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:7">
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
@@ -2212,10 +2195,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:7">
@@ -2223,26 +2206,26 @@
         <v>15</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:7">
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="18.75" spans="3:3">
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="2:4">
@@ -2250,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D23" s="12"/>
     </row>
@@ -2259,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:3">
@@ -2267,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:3">
@@ -2275,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2292,8 +2275,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2309,508 +2292,511 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>93</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
         <v>109</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>111</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
         <v>121</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
         <v>126</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>127</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
         <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
         <v>138</v>
-      </c>
-      <c r="E16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
         <v>143</v>
-      </c>
-      <c r="E18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
         <v>149</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
         <v>151</v>
-      </c>
-      <c r="E22" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
         <v>153</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
         <v>155</v>
-      </c>
-      <c r="E24" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" t="s">
         <v>157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
         <v>160</v>
-      </c>
-      <c r="E27" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
         <v>162</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
         <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
         <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
         <v>169</v>
-      </c>
-      <c r="E32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="s">
         <v>171</v>
-      </c>
-      <c r="E33" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
   <si>
     <t>Version</t>
   </si>
@@ -60,36 +60,15 @@
     <t>TaskName</t>
   </si>
   <si>
+    <t>SubTask(If required)</t>
+  </si>
+  <si>
     <t>TaskDescrption</t>
   </si>
   <si>
     <t>Task type</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(require only  for subtask create)</t>
-    </r>
-  </si>
-  <si>
     <t>AssigneeName</t>
   </si>
   <si>
@@ -108,6 +87,63 @@
     <t>Sprint</t>
   </si>
   <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>SampleTask11</t>
+  </si>
+  <si>
+    <t>SampleTask1Desciption</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>S9-SW-24</t>
+  </si>
+  <si>
+    <t>SampleTask22</t>
+  </si>
+  <si>
+    <t>SampleTask2Desciption</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>SubTask11name</t>
+  </si>
+  <si>
+    <t>SubTask1Description</t>
+  </si>
+  <si>
+    <t>SubTask</t>
+  </si>
+  <si>
+    <t>SubTask22name</t>
+  </si>
+  <si>
+    <t>SubTask2Description</t>
+  </si>
+  <si>
+    <t>SampleTask33</t>
+  </si>
+  <si>
+    <t>SampleTask3Desciption</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>User Guide for Task Creation via Excel in Zoho</t>
   </si>
   <si>
@@ -184,9 +220,6 @@
   </si>
   <si>
     <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>(Optional) Specify the sprint name.</t>
@@ -340,9 +373,6 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
     <t>iCookMPP</t>
   </si>
   <si>
@@ -406,9 +436,6 @@
     <t>Mahesh N</t>
   </si>
   <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
     <t>SW C3-TPR Module</t>
   </si>
   <si>
@@ -608,9 +635,6 @@
   </si>
   <si>
     <t>Power Modes</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>SW DSL Tasklist</t>
@@ -726,7 +750,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +941,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -927,22 +959,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1850,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1860,8 +1876,8 @@
     <col min="2" max="2" width="23.3428571428571" customWidth="1"/>
     <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="11.047619047619" customWidth="1"/>
-    <col min="7" max="7" width="32.0476190476191" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="14.6571428571429" customWidth="1"/>
     <col min="8" max="8" width="15.5238095238095" customWidth="1"/>
     <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
     <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
@@ -1926,34 +1942,191 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="8:20">
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+    <row r="2" customFormat="1" spans="1:20">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="16">
+        <v>20</v>
+      </c>
+      <c r="J2" s="17">
+        <v>45595</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45601</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="1" spans="8:20">
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+    <row r="3" customFormat="1" spans="1:20">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="16">
+        <v>20</v>
+      </c>
+      <c r="J3" s="17">
+        <v>45597</v>
+      </c>
+      <c r="K3" s="17">
+        <v>45601</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" customFormat="1" spans="8:20">
-      <c r="H4" s="16"/>
+    <row r="4" customFormat="1" spans="1:20">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="17">
+        <v>45599</v>
+      </c>
+      <c r="K4" s="17">
+        <v>45602</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" customFormat="1" spans="8:20">
-      <c r="H5" s="16"/>
+    <row r="5" customFormat="1" spans="1:20">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="17">
+        <v>45601</v>
+      </c>
+      <c r="K5" s="17">
+        <v>45604</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" customFormat="1" spans="8:20">
-      <c r="H6" s="16"/>
+    <row r="6" customFormat="1" spans="1:20">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="17">
+        <v>45603</v>
+      </c>
+      <c r="K6" s="17">
+        <v>45605</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
@@ -2082,24 +2255,24 @@
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:7">
@@ -2107,21 +2280,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
@@ -2129,10 +2302,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
@@ -2140,18 +2313,18 @@
         <v>5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G12" s="10">
         <v>12345657</v>
@@ -2159,35 +2332,35 @@
     </row>
     <row r="13" customFormat="1" spans="5:7">
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:7">
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:7">
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
@@ -2195,10 +2368,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="5:7">
@@ -2206,26 +2379,26 @@
         <v>15</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:7">
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="18.75" spans="3:3">
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="2:4">
@@ -2233,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12"/>
     </row>
@@ -2242,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:3">
@@ -2250,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:3">
@@ -2258,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2448,7 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2292,511 +2465,511 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
   <si>
     <t>Version</t>
   </si>
@@ -87,139 +87,94 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
-    <t>SampleTask11</t>
-  </si>
-  <si>
-    <t>SampleTask1Desciption</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
+    <t>User Guide for Task Creation via Excel in Zoho</t>
+  </si>
+  <si>
+    <t>Headers Explanation</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>(Mandatory)Serial number</t>
+  </si>
+  <si>
+    <t>Tasks serial number mandatory to break the loop of empty rows</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the project name.</t>
+  </si>
+  <si>
+    <t>Chandrayan 3</t>
+  </si>
+  <si>
+    <t>(Mandatory) Specify the task list name.</t>
+  </si>
+  <si>
+    <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task name.</t>
+  </si>
+  <si>
+    <t>Task 1 for Chandrayan 3 project</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the subtask name for the above row task</t>
+  </si>
+  <si>
+    <t>Subtask1 for Task1</t>
+  </si>
+  <si>
+    <t>(Optional) Enter a brief task description.</t>
+  </si>
+  <si>
+    <t>TaskDescription</t>
+  </si>
+  <si>
+    <t>(Mandatory) Enter the task type (Task/SubTask)</t>
+  </si>
+  <si>
+    <t>Task/SubTask</t>
+  </si>
+  <si>
+    <t>(Optional) Specify the task owner.</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the estimation time for an task in hours</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-26-2024</t>
+  </si>
+  <si>
+    <t>Duedate</t>
+  </si>
+  <si>
+    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
+  </si>
+  <si>
+    <t>09-27-2024</t>
+  </si>
+  <si>
+    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>S9-SW-24</t>
-  </si>
-  <si>
-    <t>SampleTask22</t>
-  </si>
-  <si>
-    <t>SampleTask2Desciption</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>SubTask11name</t>
-  </si>
-  <si>
-    <t>SubTask1Description</t>
-  </si>
-  <si>
-    <t>SubTask</t>
-  </si>
-  <si>
-    <t>SubTask22name</t>
-  </si>
-  <si>
-    <t>SubTask2Description</t>
-  </si>
-  <si>
-    <t>SampleTask33</t>
-  </si>
-  <si>
-    <t>SampleTask3Desciption</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>User Guide for Task Creation via Excel in Zoho</t>
-  </si>
-  <si>
-    <t>Headers Explanation</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter the task name.</t>
-  </si>
-  <si>
-    <t>Task creation through Zoho automation tool</t>
-  </si>
-  <si>
-    <t>TaskDescription</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a brief task description.</t>
-  </si>
-  <si>
-    <t>Using API and Excel input...</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the project name.</t>
-  </si>
-  <si>
-    <t>Chandrayan 3</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task list name.</t>
-  </si>
-  <si>
-    <t>Development Tasks</t>
-  </si>
-  <si>
-    <t>TaskID</t>
-  </si>
-  <si>
-    <t>(Mandatory) Enter a unique task ID. (Only when creating subtask)</t>
-  </si>
-  <si>
-    <t>Ownername</t>
-  </si>
-  <si>
-    <t>(Mandatory) Specify the task owner.</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task start date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-26-2024</t>
-  </si>
-  <si>
-    <t>Duedate</t>
-  </si>
-  <si>
-    <t>(Optional) Enter the task due date (mm-dd-yyyy).</t>
-  </si>
-  <si>
-    <t>09-27-2024</t>
-  </si>
-  <si>
-    <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
   </si>
   <si>
     <t>(Optional) Specify the sprint name.</t>
@@ -364,6 +319,9 @@
     <t>Name the Excel file after your Zoho account username, which will be used to extract your email address for sending task creation summaries via email notifications</t>
   </si>
   <si>
+    <t xml:space="preserve"> Please ensure the Start Date (m-d-y) and Due Date (m-d-y) are in M-D-Y format, and that the Due Date is later than the Start Date</t>
+  </si>
+  <si>
     <t>ProjectNames</t>
   </si>
   <si>
@@ -373,6 +331,9 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
     <t>iCookMPP</t>
   </si>
   <si>
@@ -436,6 +397,9 @@
     <t>Mahesh N</t>
   </si>
   <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
     <t>SW C3-TPR Module</t>
   </si>
   <si>
@@ -451,9 +415,6 @@
     <t>Balamurugan M</t>
   </si>
   <si>
-    <t>SW CTS Dev</t>
-  </si>
-  <si>
     <t>System DB Info Front End</t>
   </si>
   <si>
@@ -635,6 +596,9 @@
   </si>
   <si>
     <t>Power Modes</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>SW DSL Tasklist</t>
@@ -750,7 +714,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,6 +753,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.65"/>
@@ -964,7 +935,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,14 +950,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1315,55 +1292,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1378,74 +1352,77 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1457,13 +1434,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1471,8 +1449,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1815,24 +1793,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:7">
       <c r="E7" s="8"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" s="8"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="5:7">
@@ -1866,8 +1844,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1893,338 +1871,181 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:25">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:25">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="1:20">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="16">
-        <v>20</v>
-      </c>
-      <c r="J2" s="17">
-        <v>45595</v>
-      </c>
-      <c r="K2" s="17">
-        <v>45601</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
+    <row r="2" customFormat="1" spans="8:20">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" customFormat="1" spans="1:20">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="16">
-        <v>20</v>
-      </c>
-      <c r="J3" s="17">
-        <v>45597</v>
-      </c>
-      <c r="K3" s="17">
-        <v>45601</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" customFormat="1" spans="8:20">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" customFormat="1" spans="1:20">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4" s="17">
-        <v>45599</v>
-      </c>
-      <c r="K4" s="17">
-        <v>45602</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
+    <row r="4" customFormat="1" spans="8:20">
+      <c r="H4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" customFormat="1" spans="1:20">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5" s="17">
-        <v>45601</v>
-      </c>
-      <c r="K5" s="17">
-        <v>45604</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
+    <row r="5" customFormat="1" spans="8:20">
+      <c r="H5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" customFormat="1" spans="1:20">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="J6" s="17">
-        <v>45603</v>
-      </c>
-      <c r="K6" s="17">
-        <v>45605</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
+    <row r="6" customFormat="1" spans="8:20">
+      <c r="H6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="8:20">
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="8:8">
-      <c r="H8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" customFormat="1" spans="8:8">
-      <c r="H9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" customFormat="1" spans="8:8">
-      <c r="H10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customFormat="1" spans="8:8">
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="1" spans="8:8">
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="1" spans="8:8">
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="1" spans="8:8">
-      <c r="H14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" customFormat="1" spans="8:8">
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="1" spans="8:8">
-      <c r="H16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="1" spans="8:8">
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" customFormat="1" spans="8:8">
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" customFormat="1" spans="8:8">
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="1" spans="8:8">
-      <c r="H20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" customFormat="1" spans="8:8">
-      <c r="H21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" customFormat="1" spans="8:8">
-      <c r="H22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" customFormat="1" spans="8:8">
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" customFormat="1" spans="8:8">
-      <c r="H24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" customFormat="1" spans="8:8">
-      <c r="H25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" customFormat="1" spans="8:8">
-      <c r="H26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" customFormat="1" spans="8:8">
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" customFormat="1" spans="8:8">
-      <c r="H28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" customFormat="1" spans="8:8">
-      <c r="H29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" customFormat="1" spans="8:8">
-      <c r="H30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" customFormat="1" spans="8:8">
-      <c r="H31" s="16"/>
+      <c r="H31" s="17"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>Data!$B$2:$B$33</formula1>
-    </dataValidation>
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
-      <formula1>Data!$A$2:$A$6</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"Task,SubTask"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
@@ -2239,10 +2060,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G26"/>
+  <dimension ref="B3:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2255,188 +2076,235 @@
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1"/>
     <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="5:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="15.75" spans="4:7">
+      <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
-      <c r="E10" s="9" t="s">
-        <v>4</v>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
       <c r="E11" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
       <c r="E12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="10">
-        <v>12345657</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="7" t="s">
-        <v>51</v>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:7">
       <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:7">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:7">
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="5:7">
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="5:7">
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="5:7">
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="5:7">
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="5:7">
+      <c r="E21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" ht="18.75" spans="3:3">
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15.75" spans="2:4">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="1" ht="15.75" spans="2:3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="8" t="s">
+    </row>
+    <row r="29" customFormat="1" spans="2:3">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="8" t="s">
+    </row>
+    <row r="30" customFormat="1" spans="2:3">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="5:7">
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="5:7">
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="5:7">
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="5:7">
-      <c r="E18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="18.75" spans="3:3">
-      <c r="C22" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="15.75" spans="2:4">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" customFormat="1" ht="15.75" spans="2:3">
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:3">
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="2:3">
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2449,7 +2317,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2465,511 +2333,511 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
         <v>107</v>
       </c>
-      <c r="E9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="185">
   <si>
     <t>Version</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Task type</t>
   </si>
   <si>
-    <t>AssigneeName</t>
+    <t>OwnerName</t>
   </si>
   <si>
     <t>EstimationTime(hrs-int)</t>
@@ -322,10 +322,13 @@
     <t xml:space="preserve"> Please ensure the Start Date (m-d-y) and Due Date (m-d-y) are in M-D-Y format, and that the Due Date is later than the Start Date</t>
   </si>
   <si>
+    <t>Sample Format</t>
+  </si>
+  <si>
     <t>ProjectNames</t>
   </si>
   <si>
-    <t>AssigneNames</t>
+    <t>OwnerNames</t>
   </si>
   <si>
     <t xml:space="preserve">Chandrayan 3 </t>
@@ -714,7 +717,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,13 +756,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.65"/>
@@ -912,14 +908,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -934,8 +922,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,12 +954,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1292,52 +1282,55 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1352,73 +1345,70 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1440,8 +1430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1450,7 +1441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1520,6 +1512,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="6981825"/>
+          <a:ext cx="17049750" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1842,10 +1881,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1871,44 +1910,44 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:25">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:25">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
@@ -2034,19 +2073,28 @@
     <row r="31" customFormat="1" spans="8:8">
       <c r="H31" s="17"/>
     </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="17"/>
+    </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>INDIRECT(SUBSTITUTE(B31," ","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
+      <formula1>Data!$A$2:$A$6</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30">
       <formula1>"Task,SubTask"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H32">
+      <formula1>Data!$B$2:$B$33</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30">
       <formula1>"Low,Medium,High"</formula1>
@@ -2060,18 +2108,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G30"/>
+  <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="71.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="70.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="65.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="60.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="35.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
@@ -2098,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="4:7">
+    <row r="8" customFormat="1" ht="30" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -2155,7 +2205,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2172,7 +2222,7 @@
       <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2194,7 +2244,7 @@
       <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2265,16 +2315,16 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" customFormat="1" ht="15.75" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2300,6 +2350,14 @@
       </c>
       <c r="C30" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2308,6 +2366,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2317,7 +2376,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2333,25 +2392,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2359,485 +2418,485 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="189">
   <si>
     <t>Version</t>
   </si>
@@ -87,6 +87,30 @@
     <t>Sprint</t>
   </si>
   <si>
+    <t>SW Automation Tool Dev</t>
+  </si>
+  <si>
+    <t>C3 Automation</t>
+  </si>
+  <si>
+    <t>SampleTask1111</t>
+  </si>
+  <si>
+    <t>SampleTask1Desciption</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Chandrashekhar MH</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>S9-SW-24</t>
+  </si>
+  <si>
     <t>User Guide for Task Creation via Excel in Zoho</t>
   </si>
   <si>
@@ -172,9 +196,6 @@
   </si>
   <si>
     <t>(Optional) Set the task priority (e.g., Medium, High,Low).</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>(Optional) Specify the sprint name.</t>
@@ -334,9 +355,6 @@
     <t xml:space="preserve">Chandrayan 3 </t>
   </si>
   <si>
-    <t>SW Automation Tool Dev</t>
-  </si>
-  <si>
     <t>iCookMPP</t>
   </si>
   <si>
@@ -400,9 +418,6 @@
     <t>Mahesh N</t>
   </si>
   <si>
-    <t>C3 Automation</t>
-  </si>
-  <si>
     <t>SW C3-TPR Module</t>
   </si>
   <si>
@@ -599,9 +614,6 @@
   </si>
   <si>
     <t>Power Modes</t>
-  </si>
-  <si>
-    <t>Chandrashekhar MH</t>
   </si>
   <si>
     <t>SW DSL Tasklist</t>
@@ -908,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -918,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1544,8 +1556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="6981825"/>
-          <a:ext cx="17049750" cy="1619250"/>
+          <a:off x="590550" y="6736080"/>
+          <a:ext cx="17530445" cy="1558290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,10 +1837,10 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="11.1428571428571"/>
-    <col min="7" max="7" width="44.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.1388888888889"/>
+    <col min="7" max="7" width="44.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
@@ -1884,30 +1896,30 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.3428571428571" customWidth="1"/>
-    <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="23.3425925925926" customWidth="1"/>
+    <col min="3" max="4" width="18.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="21.5740740740741" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="14.6571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.5238095238095" customWidth="1"/>
-    <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
-    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="42.1047619047619" customWidth="1"/>
+    <col min="7" max="7" width="14.6574074074074" customWidth="1"/>
+    <col min="8" max="8" width="15.5277777777778" customWidth="1"/>
+    <col min="9" max="9" width="22.1018518518519" customWidth="1"/>
+    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="16.5740740740741" customWidth="1"/>
+    <col min="14" max="14" width="42.1018518518519" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="19" max="19" width="20.8571428571429" customWidth="1"/>
-    <col min="20" max="20" width="28.2857142857143" customWidth="1"/>
-    <col min="21" max="21" width="23.7142857142857" customWidth="1"/>
-    <col min="22" max="22" width="32.1428571428571" customWidth="1"/>
-    <col min="23" max="23" width="41.8571428571429" customWidth="1"/>
-    <col min="24" max="24" width="25.4285714285714" customWidth="1"/>
-    <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="20.8611111111111" customWidth="1"/>
+    <col min="20" max="20" width="28.287037037037" customWidth="1"/>
+    <col min="21" max="21" width="23.712962962963" customWidth="1"/>
+    <col min="22" max="22" width="32.1388888888889" customWidth="1"/>
+    <col min="23" max="23" width="41.8611111111111" customWidth="1"/>
+    <col min="24" max="24" width="25.4259259259259" customWidth="1"/>
+    <col min="25" max="25" width="41.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" spans="1:25">
@@ -1959,11 +1971,43 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" customFormat="1" spans="8:20">
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+    <row r="2" customFormat="1" spans="1:20">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="17">
+        <v>20</v>
+      </c>
+      <c r="J2" s="18">
+        <v>45393</v>
+      </c>
+      <c r="K2" s="18">
+        <v>45423</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
@@ -2114,50 +2158,48 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="70.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="35.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="13.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="70.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="25.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="57.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="35.5740740740741" customWidth="1"/>
+    <col min="12" max="12" width="14.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="13.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="1" ht="23.25" spans="4:4">
+    <row r="3" customFormat="1" ht="23.4" spans="4:4">
       <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1" ht="18.75" spans="5:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="18" spans="5:5">
       <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1" ht="15.75" spans="4:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="15.6" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="30" spans="4:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="28.8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="5:7">
@@ -2165,10 +2207,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="5:7">
@@ -2176,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:7">
@@ -2187,10 +2229,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="5:7">
@@ -2198,10 +2240,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
@@ -2209,10 +2251,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:7">
@@ -2220,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:7">
@@ -2231,10 +2273,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
@@ -2242,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G16" s="10">
         <v>20</v>
@@ -2250,24 +2292,24 @@
     </row>
     <row r="17" customFormat="1" spans="5:7">
       <c r="E17" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="5:7">
       <c r="E18" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="5:7">
@@ -2275,10 +2317,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="5:7">
@@ -2286,46 +2328,43 @@
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="5:7">
       <c r="E21" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1" ht="18.75" spans="3:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="18" spans="3:3">
       <c r="C25" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="15.75" spans="2:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15.6" spans="2:4">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="2:3">
+    <row r="27" customFormat="1" ht="15.6" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:3">
@@ -2333,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:3">
@@ -2341,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:3">
@@ -2349,15 +2388,12 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1" ht="18.75" spans="2:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="18" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2379,524 +2415,524 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="25.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="32.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="46.5740740740741" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="41.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="41.287037037037" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask1111</t>
+    <t>SampleTask11111</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask11111</t>
+    <t>SampleTask111111</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1556,8 +1556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="6736080"/>
-          <a:ext cx="17530445" cy="1558290"/>
+          <a:off x="590550" y="6981825"/>
+          <a:ext cx="17049750" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,10 +1837,10 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="11.1388888888889"/>
-    <col min="7" max="7" width="44.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571"/>
+    <col min="7" max="7" width="44.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
@@ -1896,30 +1896,30 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.3425925925926" customWidth="1"/>
-    <col min="3" max="4" width="18.4259259259259" customWidth="1"/>
-    <col min="5" max="5" width="21.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="23.3428571428571" customWidth="1"/>
+    <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="14.6574074074074" customWidth="1"/>
-    <col min="8" max="8" width="15.5277777777778" customWidth="1"/>
-    <col min="9" max="9" width="22.1018518518519" customWidth="1"/>
-    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
-    <col min="11" max="11" width="16.5740740740741" customWidth="1"/>
-    <col min="14" max="14" width="42.1018518518519" customWidth="1"/>
+    <col min="7" max="7" width="14.6571428571429" customWidth="1"/>
+    <col min="8" max="8" width="15.5238095238095" customWidth="1"/>
+    <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
+    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="42.1047619047619" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="19" max="19" width="20.8611111111111" customWidth="1"/>
-    <col min="20" max="20" width="28.287037037037" customWidth="1"/>
-    <col min="21" max="21" width="23.712962962963" customWidth="1"/>
-    <col min="22" max="22" width="32.1388888888889" customWidth="1"/>
-    <col min="23" max="23" width="41.8611111111111" customWidth="1"/>
-    <col min="24" max="24" width="25.4259259259259" customWidth="1"/>
-    <col min="25" max="25" width="41.712962962963" customWidth="1"/>
+    <col min="19" max="19" width="20.8571428571429" customWidth="1"/>
+    <col min="20" max="20" width="28.2857142857143" customWidth="1"/>
+    <col min="21" max="21" width="23.7142857142857" customWidth="1"/>
+    <col min="22" max="22" width="32.1428571428571" customWidth="1"/>
+    <col min="23" max="23" width="41.8571428571429" customWidth="1"/>
+    <col min="24" max="24" width="25.4285714285714" customWidth="1"/>
+    <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" spans="1:25">
@@ -2158,27 +2158,27 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="70.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="25.5740740740741" customWidth="1"/>
-    <col min="6" max="6" width="57.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="35.5740740740741" customWidth="1"/>
-    <col min="12" max="12" width="14.287037037037" customWidth="1"/>
-    <col min="13" max="13" width="13.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="70.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="35.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="1" ht="23.4" spans="4:4">
+    <row r="3" customFormat="1" ht="23.25" spans="4:4">
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="18" spans="5:5">
+    <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.6" spans="4:7">
+    <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -2190,7 +2190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="28.8" spans="4:7">
+    <row r="8" customFormat="1" ht="30" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -2345,12 +2345,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="18" spans="3:3">
+    <row r="25" customFormat="1" ht="18.75" spans="3:3">
       <c r="C25" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="15.6" spans="2:4">
+    <row r="26" customFormat="1" ht="15.75" spans="2:4">
       <c r="B26">
         <v>1</v>
       </c>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" customFormat="1" ht="15.6" spans="2:3">
+    <row r="27" customFormat="1" ht="15.75" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="18" spans="2:2">
+    <row r="34" customFormat="1" ht="18.75" spans="2:2">
       <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2415,13 +2415,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.287037037037" customWidth="1"/>
-    <col min="2" max="2" width="32.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="46.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="41.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="41.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask111111</t>
+    <t>SampleTask1111</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask1111</t>
+    <t>SampleTask123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask123</t>
+    <t>SampleTask1234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask1234</t>
+    <t>SampleTask12345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask12345</t>
+    <t>SampleTask123456</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask123456</t>
+    <t>SampleTask12345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask12345</t>
+    <t>SampleTask1234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask1234</t>
+    <t>SampleTask12</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask12</t>
+    <t>SampleTask123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask123</t>
+    <t>SampleTask1234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask1234</t>
+    <t>SampleTask123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>SampleTask123</t>
+    <t>dummy12</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12</t>
+    <t>dummy123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123</t>
+    <t>dummy1234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1234</t>
+    <t>dummy12345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12345</t>
+    <t>dummy123456</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123456</t>
+    <t>dummy1234567</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1234567</t>
+    <t>dummy12345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12345</t>
+    <t>dummy123456</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123456</t>
+    <t>dummy12345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12345</t>
+    <t>dummy1234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1234</t>
+    <t>dummy123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123</t>
+    <t>dummy1234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1234</t>
+    <t>dummy12345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12345</t>
+    <t>dummy123456</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123456</t>
+    <t>dummy1234567</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1234567</t>
+    <t>dummy123456</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123456</t>
+    <t>dummy1235555</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1235555</t>
+    <t>dummy123555566</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123555566</t>
+    <t>dummy12355</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12355</t>
+    <t>dummy1235566</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1235566</t>
+    <t>dummy123556</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy123556</t>
+    <t>dummy12355699</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12355699</t>
+    <t>dummy1212</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1212</t>
+    <t>dummy12123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12123</t>
+    <t>dummy121235</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy121235</t>
+    <t>dummy1212356</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1212356</t>
+    <t>dummy12123567</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12123567</t>
+    <t>dummy121235671</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy121235671</t>
+    <t>dummy1212356712</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1212356712</t>
+    <t>dummy12123567123</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12123567123</t>
+    <t>dummy121235671234</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,14 +920,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -938,6 +930,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy121235671234</t>
+    <t>dummy1212356712345</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy1212356712345</t>
+    <t>dummy12123567123456</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -920,6 +920,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -930,14 +938,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1556,8 +1556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="6981825"/>
-          <a:ext cx="17049750" cy="1619250"/>
+          <a:off x="590550" y="6736080"/>
+          <a:ext cx="17530445" cy="1558290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,10 +1837,10 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="11.1428571428571"/>
-    <col min="7" max="7" width="44.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.1388888888889"/>
+    <col min="7" max="7" width="44.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:7">
@@ -1896,30 +1896,30 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.3428571428571" customWidth="1"/>
-    <col min="3" max="4" width="18.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="23.3425925925926" customWidth="1"/>
+    <col min="3" max="4" width="18.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="21.5740740740741" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="14.6571428571429" customWidth="1"/>
-    <col min="8" max="8" width="15.5238095238095" customWidth="1"/>
-    <col min="9" max="9" width="22.1047619047619" customWidth="1"/>
-    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
-    <col min="14" max="14" width="42.1047619047619" customWidth="1"/>
+    <col min="7" max="7" width="14.6574074074074" customWidth="1"/>
+    <col min="8" max="8" width="15.5277777777778" customWidth="1"/>
+    <col min="9" max="9" width="22.1018518518519" customWidth="1"/>
+    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="16.5740740740741" customWidth="1"/>
+    <col min="14" max="14" width="42.1018518518519" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="19" max="19" width="20.8571428571429" customWidth="1"/>
-    <col min="20" max="20" width="28.2857142857143" customWidth="1"/>
-    <col min="21" max="21" width="23.7142857142857" customWidth="1"/>
-    <col min="22" max="22" width="32.1428571428571" customWidth="1"/>
-    <col min="23" max="23" width="41.8571428571429" customWidth="1"/>
-    <col min="24" max="24" width="25.4285714285714" customWidth="1"/>
-    <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="20.8611111111111" customWidth="1"/>
+    <col min="20" max="20" width="28.287037037037" customWidth="1"/>
+    <col min="21" max="21" width="23.712962962963" customWidth="1"/>
+    <col min="22" max="22" width="32.1388888888889" customWidth="1"/>
+    <col min="23" max="23" width="41.8611111111111" customWidth="1"/>
+    <col min="24" max="24" width="25.4259259259259" customWidth="1"/>
+    <col min="25" max="25" width="41.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" spans="1:25">
@@ -2158,27 +2158,27 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="70.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="35.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="13.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="70.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="25.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="57.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="35.5740740740741" customWidth="1"/>
+    <col min="12" max="12" width="14.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="13.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="1" ht="23.25" spans="4:4">
+    <row r="3" customFormat="1" ht="23.4" spans="4:4">
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="18.75" spans="5:5">
+    <row r="5" customFormat="1" ht="18" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="15.75" spans="4:7">
+    <row r="7" customFormat="1" ht="15.6" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -2190,7 +2190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="30" spans="4:7">
+    <row r="8" customFormat="1" ht="28.8" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -2345,12 +2345,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="18.75" spans="3:3">
+    <row r="25" customFormat="1" ht="18" spans="3:3">
       <c r="C25" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="15.75" spans="2:4">
+    <row r="26" customFormat="1" ht="15.6" spans="2:4">
       <c r="B26">
         <v>1</v>
       </c>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" customFormat="1" ht="15.75" spans="2:3">
+    <row r="27" customFormat="1" ht="15.6" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="18.75" spans="2:2">
+    <row r="34" customFormat="1" ht="18" spans="2:2">
       <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2415,13 +2415,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="25.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="32.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="46.5740740740741" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="41.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="41.287037037037" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>

--- a/Chandrashekhar MH/Chandrashekhar MH.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar MH.xlsx
@@ -93,7 +93,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>dummy12123567123456</t>
+    <t>dummy121235671234567</t>
   </si>
   <si>
     <t>SampleTask1Desciption</t>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
